--- a/error_code_list.xlsx
+++ b/error_code_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/workspace/project-bachang/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC121598-AA13-7345-980A-E71DBB124110}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096DF342-5E28-8948-8C56-F2832A7DC21D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="460" windowWidth="25000" windowHeight="14560" xr2:uid="{83553681-E14A-F543-907C-A04BA25F04DD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Error Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,26 @@
   </si>
   <si>
     <t>비밀번호 불일치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 관련 에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 DB 생성 오류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB091E6-7D2F-2E4A-A26B-106B0A63DD6C}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -612,22 +632,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="3:7">
+    <row r="17" spans="2:7">
       <c r="C17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="3:7">
+    <row r="18" spans="2:7">
       <c r="D18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="3:7">
+    <row r="19" spans="2:7">
       <c r="E19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="3:7">
+    <row r="20" spans="2:7">
       <c r="F20">
         <v>2001</v>
       </c>
@@ -635,12 +655,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="3:7">
+    <row r="21" spans="2:7">
       <c r="E21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="3:7">
+    <row r="22" spans="2:7">
       <c r="F22">
         <v>2002</v>
       </c>
@@ -648,7 +668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="3:7">
+    <row r="23" spans="2:7">
       <c r="F23">
         <v>2003</v>
       </c>
@@ -656,12 +676,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="3:7">
+    <row r="25" spans="2:7">
       <c r="E25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="3:7">
+    <row r="26" spans="2:7">
       <c r="F26">
         <v>2004</v>
       </c>
@@ -669,12 +689,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="3:7">
+    <row r="27" spans="2:7">
       <c r="E27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="3:7">
+    <row r="28" spans="2:7">
       <c r="F28">
         <v>2005</v>
       </c>
@@ -682,17 +702,45 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="3:7">
+    <row r="29" spans="2:7">
       <c r="E29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="3:7">
+    <row r="30" spans="2:7">
       <c r="F30">
         <v>2006</v>
       </c>
       <c r="G30" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7">
+      <c r="E35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="F36">
+        <v>3001</v>
+      </c>
+      <c r="G36" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
